--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="MAPPING - ... to Publication (oe_publication)" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="tbl_dest" vbProcedure="false">'MAPPING - ... to Landing page (landing_page)'!$C$2:$I$101</definedName>
+    <definedName function="false" hidden="false" name="tbl_dest" vbProcedure="false">'MAPPING - ... to Landing page (landing_page)'!$C$2:$I$96</definedName>
     <definedName function="false" hidden="false" name="tbl_src" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="80">
   <si>
     <t xml:space="preserve">COMM - Learning Corner</t>
   </si>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">Field cardinality</t>
   </si>
   <si>
-    <t xml:space="preserve">uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UUID</t>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content type</t>
   </si>
   <si>
     <t xml:space="preserve">varchar_ascii</t>
@@ -94,19 +94,61 @@
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">langcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content type</t>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_content_short_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_content_navigation_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_content_content_owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNLIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_content_legacy_link/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirect link / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_content_legacy_link/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirect link / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_content_legacy_link/options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirect link / options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News (oe_news)</t>
   </si>
   <si>
     <t xml:space="preserve">revision_timestamp</t>
@@ -118,72 +160,6 @@
     <t xml:space="preserve">int</t>
   </si>
   <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_content_short_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_content_navigation_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_content_content_owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNLIMITED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_content_legacy_link/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirect link / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_content_legacy_link/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirect link / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_content_legacy_link/options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirect link / options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paragraphs/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content items / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paragraphs/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content items / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">News (oe_news)</t>
-  </si>
-  <si>
     <t xml:space="preserve">body/value</t>
   </si>
   <si>
@@ -278,12 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">Timeline / body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_timeline/format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timeline / format</t>
   </si>
   <si>
     <t xml:space="preserve">Publication (oe_publication)</t>
@@ -584,20 +554,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:15"/>
+  <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="15.234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="25.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="27.6020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="6" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="27.719387755102"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="15.1173469387755"/>
@@ -690,7 +659,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1</v>
@@ -701,19 +670,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>1</v>
@@ -724,22 +693,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -747,22 +716,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
@@ -776,19 +745,19 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +768,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -822,10 +791,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -845,134 +814,19 @@
         <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -991,20 +845,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:24"/>
+  <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="16.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="16.5612244897959"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="14.8775510204082"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="15.1173469387755"/>
@@ -1017,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -1097,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -1108,16 +962,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>20</v>
@@ -1131,19 +985,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1154,16 +1008,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -1177,19 +1031,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -1200,39 +1054,39 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -1246,42 +1100,42 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -1292,39 +1146,39 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>20</v>
@@ -1338,19 +1192,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
@@ -1361,39 +1215,39 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>20</v>
@@ -1401,22 +1255,22 @@
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>20</v>
@@ -1424,68 +1278,68 @@
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>20</v>
@@ -1493,99 +1347,30 @@
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="n">
+      <c r="I21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1605,20 +1390,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:21"/>
+  <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5612244897959"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1173469387755"/>
@@ -1630,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -1710,7 +1495,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -1721,19 +1506,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1744,19 +1529,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1767,16 +1552,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -1796,19 +1581,19 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,10 +1604,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -1842,10 +1627,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -1859,85 +1644,85 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>20</v>
@@ -1945,22 +1730,22 @@
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>20</v>
@@ -1968,22 +1753,22 @@
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>20</v>
@@ -1991,145 +1776,30 @@
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="n">
+      <c r="I16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2149,20 +1819,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4438775510204"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1581632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1173469387755"/>
@@ -2174,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -2254,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -2265,19 +1935,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -2288,19 +1958,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -2311,16 +1981,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -2340,19 +2010,19 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,10 +2033,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
@@ -2386,10 +2056,10 @@
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -2403,85 +2073,85 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>20</v>
@@ -2495,19 +2165,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
@@ -2518,62 +2188,62 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>20</v>
@@ -2581,123 +2251,8 @@
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2716,20 +2271,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0714285714286"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1581632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.719387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8367346938776"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1173469387755"/>
@@ -2741,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -2821,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -2832,16 +2387,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>20</v>
@@ -2855,19 +2410,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -2878,16 +2433,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
@@ -2901,19 +2456,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -2924,39 +2479,39 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>20</v>
@@ -2970,88 +2525,88 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -3062,10 +2617,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -3074,53 +2629,53 @@
         <v>20</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
@@ -3131,93 +2686,24 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="n">
+      <c r="I17" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="84">
   <si>
     <t xml:space="preserve">COMM - Learning Corner</t>
   </si>
@@ -148,6 +148,21 @@
     <t xml:space="preserve">blob</t>
   </si>
   <si>
+    <t xml:space="preserve">paragraphs/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content items / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paragraphs/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content items / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">News (oe_news)</t>
   </si>
   <si>
@@ -155,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revision create time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
   </si>
   <si>
     <t xml:space="preserve">body/value</t>
@@ -366,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +424,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,19 +578,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:10"/>
+  <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="15.234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="6" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="27.8367346938776"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="15.1173469387755"/>
@@ -827,6 +851,52 @@
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -856,9 +926,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="6" width="16.5612244897959"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="6" width="14.8775510204082"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="6" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="15.1173469387755"/>
@@ -871,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -962,13 +1032,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>20</v>
@@ -1123,13 +1193,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>21</v>
@@ -1146,10 +1216,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -1169,13 +1239,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>20</v>
@@ -1192,10 +1262,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -1215,10 +1285,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
@@ -1238,10 +1308,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
@@ -1261,10 +1331,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
@@ -1284,10 +1354,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
@@ -1307,10 +1377,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1330,13 +1400,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>21</v>
@@ -1353,13 +1423,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>21</v>
@@ -1401,9 +1471,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5612244897959"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1173469387755"/>
@@ -1415,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -1644,13 +1714,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>21</v>
@@ -1667,10 +1737,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -1690,10 +1760,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
@@ -1713,10 +1783,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
@@ -1736,10 +1806,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -1759,13 +1829,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>21</v>
@@ -1782,13 +1852,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>21</v>
@@ -1827,12 +1897,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.5612244897959"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1581632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1173469387755"/>
@@ -1844,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -2073,13 +2142,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>21</v>
@@ -2096,10 +2165,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -2119,10 +2188,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -2142,13 +2211,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>21</v>
@@ -2165,13 +2234,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>21</v>
@@ -2188,10 +2257,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -2211,13 +2280,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>21</v>
@@ -2234,13 +2303,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>21</v>
@@ -2273,18 +2342,18 @@
   </sheetPr>
   <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1989795918367"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1581632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9642857142857"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1938775510204"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1173469387755"/>
@@ -2296,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="8"/>
@@ -2387,13 +2456,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>20</v>
@@ -2548,10 +2617,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -2571,13 +2640,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>20</v>
@@ -2594,10 +2663,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
@@ -2617,10 +2686,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -2640,10 +2709,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -2663,13 +2732,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>21</v>
@@ -2686,13 +2755,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>21</v>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="267">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -288,18 +288,6 @@
     <t xml:space="preserve">Event (oe_event)</t>
   </si>
   <si>
-    <t xml:space="preserve">content_translation_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content_translation_outdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation outdated</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full text / value</t>
   </si>
   <si>
@@ -498,28 +486,31 @@
     <t xml:space="preserve">Social media links / link_type</t>
   </si>
   <si>
+    <t xml:space="preserve">List Page (oe_list_page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_additional_links/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional links / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_additional_links/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional links / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_additional_links_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional links title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
     <t xml:space="preserve">News (oe_news)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_additional_links/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional links / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_additional_links/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional links / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_additional_links_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional links title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
   </si>
   <si>
     <t xml:space="preserve">oe_news_contacts/target_id</t>
@@ -1056,13 +1047,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1103,24 +1094,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1128,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1341,19 +1332,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -1364,16 +1355,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -1381,39 +1372,39 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -1422,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -1433,16 +1424,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -1450,65 +1441,65 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
@@ -1525,16 +1516,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>18</v>
@@ -1542,19 +1533,19 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>30</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>18</v>
@@ -1565,16 +1556,16 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>45</v>
@@ -1583,24 +1574,24 @@
         <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
@@ -1612,52 +1603,6 @@
         <v>0</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1677,26 +1622,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1704,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1917,19 +1862,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -1940,16 +1885,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -1957,39 +1902,39 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -2009,13 +1954,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -2032,16 +1977,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -2049,22 +1994,22 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -2072,22 +2017,22 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -2101,16 +2046,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -2124,16 +2069,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -2141,22 +2086,22 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -2164,22 +2109,22 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -2193,16 +2138,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -2216,13 +2161,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>22</v>
@@ -2233,19 +2178,19 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>22</v>
@@ -2256,19 +2201,19 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>30</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>22</v>
@@ -2279,8 +2224,8 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,16 +2239,16 @@
         <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,16 +2256,16 @@
         <v>218</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -2331,10 +2276,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
@@ -2354,10 +2299,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2377,10 +2322,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -2400,10 +2345,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
@@ -2423,10 +2368,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
@@ -2446,10 +2391,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
@@ -2469,10 +2414,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -2492,10 +2437,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -2515,10 +2460,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -2538,10 +2483,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -2561,10 +2506,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>17</v>
@@ -2584,19 +2529,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H39" s="7" t="n">
         <v>0</v>
@@ -2607,33 +2552,33 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>30</v>
+      <c r="I40" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>21</v>
@@ -2653,13 +2598,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>18</v>
@@ -2676,16 +2621,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>22</v>
@@ -2693,16 +2638,16 @@
       <c r="H43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>30</v>
+      <c r="I43" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
@@ -2722,10 +2667,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>17</v>
@@ -2745,16 +2690,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -2768,39 +2713,39 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H47" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I47" s="7" t="n">
-        <v>1</v>
+      <c r="I47" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>22</v>
@@ -2814,16 +2759,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>18</v>
@@ -2831,53 +2776,7 @@
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7" t="n">
+      <c r="I49" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,24 +2796,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2922,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3135,13 +3034,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -3158,16 +3057,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -3175,22 +3074,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -3198,16 +3097,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -3216,7 +3115,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -3227,10 +3126,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3250,13 +3149,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -3273,13 +3172,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -3296,19 +3195,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
@@ -3319,36 +3218,36 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>30</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
@@ -3359,25 +3258,25 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -3388,39 +3287,39 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -3434,39 +3333,39 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -3474,45 +3373,45 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -3520,22 +3419,22 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>18</v>
@@ -3543,53 +3442,7 @@
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="n">
+      <c r="I27" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,22 +3465,22 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5052,22 +4905,22 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5788,22 +5641,22 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6360,25 +6213,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:52"/>
+  <dimension ref="1:50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7602,13 +7455,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -7625,16 +7478,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -7642,22 +7495,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -7665,16 +7518,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -7683,7 +7536,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -7694,13 +7547,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -7717,13 +7570,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -7734,8 +7587,8 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,19 +7599,19 @@
         <v>91</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,13 +7622,13 @@
         <v>93</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
@@ -7795,10 +7648,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -7815,10 +7668,10 @@
         <v>97</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -7861,19 +7714,19 @@
         <v>101</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,7 +7740,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -7907,19 +7760,19 @@
         <v>105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,10 +7783,10 @@
         <v>107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -7956,7 +7809,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -7976,7 +7829,7 @@
         <v>111</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>18</v>
@@ -8002,7 +7855,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -8022,10 +7875,10 @@
         <v>115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -8045,7 +7898,7 @@
         <v>117</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>22</v>
@@ -8068,10 +7921,10 @@
         <v>119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -8091,10 +7944,10 @@
         <v>121</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>22</v>
@@ -8117,7 +7970,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>22</v>
@@ -8140,7 +7993,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -8163,7 +8016,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -8186,7 +8039,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>22</v>
@@ -8206,7 +8059,7 @@
         <v>131</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>18</v>
@@ -8229,7 +8082,7 @@
         <v>133</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>18</v>
@@ -8252,13 +8105,13 @@
         <v>135</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>0</v>
@@ -8275,13 +8128,13 @@
         <v>137</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H39" s="7" t="n">
         <v>0</v>
@@ -8298,13 +8151,13 @@
         <v>139</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
@@ -8321,13 +8174,13 @@
         <v>141</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
@@ -8344,10 +8197,10 @@
         <v>143</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>22</v>
@@ -8361,10 +8214,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>17</v>
@@ -8384,10 +8237,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
@@ -8407,10 +8260,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>17</v>
@@ -8424,16 +8277,16 @@
       <c r="H45" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="n">
-        <v>1</v>
+      <c r="I45" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
@@ -8447,8 +8300,8 @@
       <c r="H46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="7" t="n">
-        <v>1</v>
+      <c r="I46" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8476,19 +8329,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>0</v>
@@ -8499,13 +8352,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>18</v>
@@ -8516,22 +8369,22 @@
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>30</v>
+      <c r="I49" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>18</v>
@@ -8539,53 +8392,7 @@
       <c r="H50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7" t="n">
+      <c r="I50" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8607,14 +8414,14 @@
   </sheetPr>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.7755102040816"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.7142857142857"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
@@ -8622,7 +8429,7 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8630,8 +8437,9 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -8843,10 +8651,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -8866,10 +8674,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -8889,10 +8697,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -8912,10 +8720,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -9090,21 +8898,21 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9112,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9325,19 +9133,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -9348,16 +9156,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -9365,39 +9173,39 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -9417,13 +9225,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -9440,13 +9248,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -9457,8 +9265,8 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,7 +9277,7 @@
         <v>163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -9480,8 +9288,8 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,39 +9297,39 @@
         <v>164</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -9532,42 +9340,42 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -9578,16 +9386,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -9601,10 +9409,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -9618,22 +9426,22 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -9641,25 +9449,25 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
@@ -9670,13 +9478,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
@@ -9687,22 +9495,22 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>30</v>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>18</v>
@@ -9710,19 +9518,19 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>18</v>
@@ -9739,19 +9547,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
@@ -9779,21 +9587,21 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9801,7 +9609,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -10014,13 +9822,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -10037,16 +9845,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -10054,22 +9862,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -10077,22 +9885,22 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -10100,19 +9908,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -10123,8 +9931,8 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10135,10 +9943,10 @@
         <v>175</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -10155,10 +9963,10 @@
         <v>176</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -10175,13 +9983,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -10198,10 +10006,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>29</v>
@@ -10221,19 +10029,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -10244,16 +10052,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -10267,19 +10075,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -10290,13 +10098,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -10313,13 +10121,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>18</v>
@@ -10336,13 +10144,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -10359,13 +10167,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
@@ -10396,24 +10204,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10421,7 +10229,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -10634,13 +10442,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -10657,16 +10465,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -10674,22 +10482,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -10697,16 +10505,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -10726,16 +10534,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -10743,22 +10551,22 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -10766,16 +10574,16 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -10789,16 +10597,16 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -10812,22 +10620,22 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -10841,13 +10649,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>18</v>
@@ -10858,76 +10666,30 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+      <c r="I20" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,21 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="MAPPING - ... to Landing page (landing_page)" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="MAPPING - ... to Call for Proposals (oe_call_proposals)" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="MAPPING - ... to Call for Tenders (oe_call_tenders)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="MAPPING - ... to Event (oe_event)" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="MAPPING - ... to List Page (oe_list_page)" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="MAPPING - ... to News (oe_news)" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="MAPPING - ... to Organisation (oe_organisation)" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="MAPPING - ... to Page (oe_page)" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="MAPPING - ... to Policy (oe_policy)" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="MAPPING - ... to Project (oe_project)" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="MAPPING - ... to Publication (oe_publication)" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="MAPPING - ... to Consultation (oe_consultation)" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="MAPPING - ... to Event (oe_event)" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="MAPPING - ... to List Page (oe_list_page)" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="MAPPING - ... to News (oe_news)" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="MAPPING - ... to Organisation (oe_organisation)" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="MAPPING - ... to Page (oe_page)" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="MAPPING - ... to Policy (oe_policy)" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="MAPPING - ... to Project (oe_project)" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="MAPPING - ... to Publication (oe_publication)" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="tbl_dest" vbProcedure="false">'MAPPING - ... to Landing page (landing_page)'!$C$2:$I$2</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="296">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -285,6 +286,93 @@
     <t xml:space="preserve">oe_call_tenders_opening_date</t>
   </si>
   <si>
+    <t xml:space="preserve">Consultation (oe_consultation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_additional_info/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional information / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_aim/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why we are consulting / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_closed_text/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond to the consultation (closed status text) / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_contacts/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_documents/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_guidelines/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond to the consultation / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_legal_info/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal notice / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_opening_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_outcome/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation outcome / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_outcome_files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_response_button/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond button / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_response_button/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond button / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_target_audience/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target audience / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Event (oe_event)</t>
   </si>
   <si>
@@ -516,9 +604,6 @@
     <t xml:space="preserve">oe_news_contacts/target_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contacts / target_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_news_featured_media</t>
   </si>
   <si>
@@ -615,9 +700,6 @@
     <t xml:space="preserve">Project (oe_project)</t>
   </si>
   <si>
-    <t xml:space="preserve">Departments</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_featured_media/target_id</t>
   </si>
   <si>
@@ -796,6 +878,12 @@
   </si>
   <si>
     <t xml:space="preserve">Publication (oe_publication)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body/summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body text / summary</t>
   </si>
   <si>
     <t xml:space="preserve">Related department</t>
@@ -1041,19 +1129,19 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.95408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.1377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1094,24 +1182,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1119,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1344,7 +1432,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -1401,10 +1489,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -1413,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -1470,19 +1558,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -1493,13 +1581,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
@@ -1510,42 +1598,42 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>18</v>
@@ -1556,16 +1644,16 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>45</v>
@@ -1574,36 +1662,13 @@
         <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1622,26 +1687,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1649,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1931,10 +1994,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -1943,7 +2006,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -1954,16 +2017,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -1971,19 +2034,19 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>18</v>
@@ -2000,39 +2063,39 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -2046,19 +2109,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -2069,10 +2132,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -2092,13 +2155,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>18</v>
@@ -2115,16 +2178,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -2134,650 +2197,6 @@
       </c>
       <c r="I21" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2796,24 +2215,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2821,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2876,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -3046,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -3103,10 +2524,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -3115,7 +2536,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -3126,10 +2547,1182 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>254</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3138,7 +3731,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -3149,19 +3742,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
@@ -3172,10 +3765,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
@@ -3184,7 +3777,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -3195,13 +3788,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -3218,33 +3811,33 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -3253,7 +3846,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -3264,13 +3857,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
@@ -3287,56 +3880,56 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -3356,16 +3949,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -3373,25 +3966,25 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>30</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
@@ -3402,33 +3995,33 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>45</v>
@@ -3437,12 +4030,35 @@
         <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,22 +4081,22 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4905,22 +5521,22 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5641,22 +6257,22 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6213,25 +6829,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:50"/>
+  <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7297,7 +7913,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -7455,16 +8071,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -7472,16 +8088,16 @@
       <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <v>1</v>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -7501,16 +8117,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -7518,45 +8134,45 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -7564,39 +8180,39 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -7616,16 +8232,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -7633,19 +8249,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>18</v>
@@ -7662,16 +8278,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -7685,19 +8301,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -7708,36 +8324,36 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
@@ -7748,22 +8364,22 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -7777,13 +8393,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -7800,19 +8416,19 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
@@ -7823,16 +8439,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -7840,22 +8456,22 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -7869,16 +8485,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -7892,36 +8508,36 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="n">
-        <v>1</v>
+      <c r="I29" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>18</v>
@@ -7938,461 +8554,24 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8412,24 +8591,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="1:50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.7755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8437,9 +8617,8 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>112</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -8475,6 +8654,10 @@
       <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -8487,6 +8670,1005 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
@@ -8651,13 +9833,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -8668,22 +9850,22 @@
       <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>30</v>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -8697,16 +9879,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -8714,16 +9896,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -8732,7 +9914,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -8743,16 +9925,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -8760,25 +9942,25 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
@@ -8789,33 +9971,33 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>45</v>
@@ -8835,19 +10017,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -8858,10 +10040,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
@@ -8875,8 +10057,721 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8895,24 +10790,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8920,8 +10815,9 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -9133,39 +11029,39 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <v>1</v>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -9179,16 +11075,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -9196,16 +11092,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -9225,16 +11121,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -9242,22 +11138,22 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -9271,10 +11167,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>29</v>
@@ -9288,45 +11184,45 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>18</v>
@@ -9340,16 +11236,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -9357,215 +11253,8 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9584,24 +11273,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9609,7 +11298,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9834,7 +11523,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -9891,16 +11580,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -9908,16 +11597,16 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
@@ -9931,19 +11620,19 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -9960,10 +11649,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>29</v>
@@ -9983,42 +11672,42 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -10029,19 +11718,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -10052,10 +11741,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -10075,16 +11764,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -10098,13 +11787,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -10115,19 +11804,19 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>18</v>
@@ -10138,42 +11827,42 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
@@ -10185,6 +11874,29 @@
         <v>0</v>
       </c>
       <c r="I25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10204,24 +11916,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10229,7 +11941,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -10511,16 +12223,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -10528,22 +12240,22 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -10557,16 +12269,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -10580,16 +12292,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -10597,22 +12309,22 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -10620,16 +12332,16 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>29</v>
@@ -10643,25 +12355,25 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>30</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -10672,24 +12384,93 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -18,9 +18,10 @@
     <sheet name="MAPPING - ... to News (oe_news)" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="MAPPING - ... to Organisation (oe_organisation)" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="MAPPING - ... to Page (oe_page)" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="MAPPING - ... to Policy (oe_policy)" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="MAPPING - ... to Project (oe_project)" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="MAPPING - ... to Publication (oe_publication)" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="MAPPING - ... to Person (oe_person)" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="MAPPING - ... to Policy (oe_policy)" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="MAPPING - ... to Project (oe_project)" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="MAPPING - ... to Publication (oe_publication)" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="tbl_dest" vbProcedure="false">'MAPPING - ... to Landing page (landing_page)'!$C$2:$I$2</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="369">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -142,6 +143,15 @@
     <t xml:space="preserve">Redirect link / title</t>
   </si>
   <si>
+    <t xml:space="preserve">ewcms_metatags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metatags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
     <t xml:space="preserve">ewcms_vocabularies/target_association_id</t>
   </si>
   <si>
@@ -172,9 +182,6 @@
     <t xml:space="preserve">Introduction / value</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_teaser/value</t>
   </si>
   <si>
@@ -187,6 +194,12 @@
     <t xml:space="preserve">Content items / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">paragraphs/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content items / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Call for Proposals (oe_call_proposals)</t>
   </si>
   <si>
@@ -199,12 +212,24 @@
     <t xml:space="preserve">Body text / value</t>
   </si>
   <si>
+    <t xml:space="preserve">body/summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body text / summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_call_proposals_contact/target_id</t>
   </si>
   <si>
     <t xml:space="preserve">Contact / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_call_proposals_contact/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_call_proposals_deadline</t>
   </si>
   <si>
@@ -313,6 +338,12 @@
     <t xml:space="preserve">Contacts / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_consultation_contacts/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_consultation_deadline</t>
   </si>
   <si>
@@ -325,6 +356,12 @@
     <t xml:space="preserve">Documents / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_consultation_documents/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_consultation_guidelines/value</t>
   </si>
   <si>
@@ -388,6 +425,12 @@
     <t xml:space="preserve">Event contact / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_event_contact/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event contact / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_event_dates/value</t>
   </si>
   <si>
@@ -544,6 +587,12 @@
     <t xml:space="preserve">Venue / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_event_venue/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venue / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_event_website/uri</t>
   </si>
   <si>
@@ -604,6 +653,9 @@
     <t xml:space="preserve">oe_news_contacts/target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_news_contacts/target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_news_featured_media</t>
   </si>
   <si>
@@ -634,6 +686,18 @@
     <t xml:space="preserve">Organisation (oe_organisation)</t>
   </si>
   <si>
+    <t xml:space="preserve">content_translation_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content_translation_outdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation outdated</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_organisation_acronym</t>
   </si>
   <si>
@@ -643,6 +707,9 @@
     <t xml:space="preserve">oe_organisation_contact/target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_organisation_contact/target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_organisation_eu_org</t>
   </si>
   <si>
@@ -679,6 +746,144 @@
     <t xml:space="preserve">Policy (oe_policy)</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_person_biography_intro/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography introduction / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_timeline/label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography / label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_timeline/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_timeline/body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography / body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_contacts/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_contacts/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_displayed_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displayed name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_documents/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articles and publications / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_documents/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articles and publications / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_interests_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaration of interests file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_interests_intro/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaration of interests introduction / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_jobs/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_jobs/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portrait photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_transparency_intro/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency introduction / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_transparency_links/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency links / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_transparency_links/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency links / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of person are you adding?</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_timeline/label</t>
   </si>
   <si>
@@ -745,12 +950,24 @@
     <t xml:space="preserve">Project contact / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_project_contact/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project contact / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_project_coordinators/target_id</t>
   </si>
   <si>
     <t xml:space="preserve">Coordinators / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_project_coordinators/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinators / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_project_dates/value</t>
   </si>
   <si>
@@ -850,6 +1067,12 @@
     <t xml:space="preserve">Participants / target_id</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_project_participants/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_project_results/value</t>
   </si>
   <si>
@@ -880,12 +1103,6 @@
     <t xml:space="preserve">Publication (oe_publication)</t>
   </si>
   <si>
-    <t xml:space="preserve">body/summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body text / summary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Related department</t>
   </si>
   <si>
@@ -893,6 +1110,9 @@
   </si>
   <si>
     <t xml:space="preserve">oe_publication_contacts/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_publication_contacts/target_revision_id</t>
   </si>
   <si>
     <t xml:space="preserve">oe_publication_countries</t>
@@ -1135,13 +1355,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.95408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="25.1377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1182,24 +1402,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1207,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1420,13 +1640,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -1449,10 +1669,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -1460,16 +1680,16 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -1489,10 +1709,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -1512,16 +1732,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -1529,16 +1749,16 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -1558,10 +1778,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -1575,16 +1795,16 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1604,16 +1824,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -1627,16 +1847,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -1644,8 +1864,8 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,18 +1876,41 @@
         <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1687,24 +1930,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1712,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1767,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -1925,19 +2168,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -1948,10 +2191,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -1971,10 +2214,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -1994,10 +2237,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -2006,7 +2249,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -2017,13 +2260,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -2040,10 +2283,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -2057,25 +2300,25 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -2086,13 +2329,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
@@ -2103,45 +2346,45 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -2155,16 +2398,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -2172,31 +2415,583 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2215,26 +3010,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2242,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2455,13 +3248,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -2484,10 +3277,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -2495,16 +3288,16 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -2524,10 +3317,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -2547,19 +3340,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -2570,13 +3363,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>18</v>
@@ -2593,10 +3386,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -2616,39 +3409,39 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -2662,33 +3455,33 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2708,16 +3501,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -2731,16 +3524,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -2750,627 +3543,6 @@
       </c>
       <c r="I22" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3389,24 +3561,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3414,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3469,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -3627,19 +3801,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -3650,13 +3824,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -3673,10 +3847,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -3696,10 +3870,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -3719,10 +3893,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3731,7 +3905,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -3742,10 +3916,1274 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>283</v>
+        <v>83</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -3765,13 +5203,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -3788,13 +5226,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -3811,19 +5249,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -3834,36 +5272,36 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
@@ -3874,19 +5312,19 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
@@ -3897,19 +5335,19 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
@@ -3920,22 +5358,22 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>39</v>
+        <v>361</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -3949,16 +5387,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>34</v>
+        <v>364</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -3972,19 +5410,19 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
@@ -3995,25 +5433,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,10 +5459,10 @@
         <v>43</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>18</v>
@@ -4041,24 +5479,93 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
+      <c r="E30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,25 +5585,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:17"/>
+  <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5326,10 +6833,10 @@
         <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -5337,16 +6844,16 @@
       <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>30</v>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -5366,16 +6873,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -5383,16 +6890,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>17</v>
@@ -5412,48 +6919,48 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,13 +6971,13 @@
         <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -5487,18 +6994,64 @@
         <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5518,25 +7071,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5544,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5599,7 +7152,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -5757,13 +7310,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -5780,16 +7333,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -5797,22 +7350,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -5820,19 +7373,19 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>22</v>
@@ -5843,19 +7396,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -5872,13 +7425,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -5895,13 +7448,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -5918,10 +7471,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -5935,22 +7488,22 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -5964,16 +7517,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -5987,10 +7540,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5999,7 +7552,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -6010,16 +7563,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -6033,16 +7586,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -6050,39 +7603,39 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
@@ -6091,7 +7644,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
@@ -6102,16 +7655,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -6119,22 +7672,22 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -6142,16 +7695,16 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -6160,7 +7713,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -6171,25 +7724,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>30</v>
+      <c r="I28" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,10 +7750,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>18</v>
@@ -6217,24 +7770,93 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
+      <c r="E32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,25 +7876,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6280,7 +7902,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -6493,13 +8115,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -6522,10 +8144,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -6533,16 +8155,16 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -6562,33 +8184,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -6597,7 +8219,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -6608,13 +8230,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -6625,19 +8247,19 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -6654,42 +8276,42 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -6700,10 +8322,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -6723,16 +8345,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -6746,48 +8368,48 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,18 +8420,41 @@
         <v>47</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6829,25 +8474,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:31"/>
+  <dimension ref="1:34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6855,7 +8500,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7913,7 +9558,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -8077,10 +9722,10 @@
         <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -8088,16 +9733,16 @@
       <c r="H10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>30</v>
+      <c r="I10" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -8117,16 +9762,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -8134,19 +9779,19 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -8163,13 +9808,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -8186,16 +9831,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -8203,39 +9848,39 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -8255,19 +9900,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -8278,16 +9923,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -8295,42 +9940,42 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
@@ -8347,16 +9992,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -8364,25 +10009,25 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
@@ -8393,13 +10038,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -8416,39 +10061,39 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -8456,16 +10101,16 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -8485,19 +10130,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
@@ -8508,10 +10153,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>29</v>
@@ -8520,7 +10165,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
@@ -8531,13 +10176,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>18</v>
@@ -8554,24 +10199,93 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="n">
+      <c r="E33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8591,25 +10305,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:50"/>
+  <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8617,7 +10331,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9833,13 +11547,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -9862,10 +11576,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -9873,16 +11587,16 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -9902,10 +11616,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -9914,7 +11628,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -9925,19 +11639,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -9948,65 +11662,65 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
@@ -10017,19 +11731,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -10040,16 +11754,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -10063,10 +11777,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -10086,39 +11800,39 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -10132,39 +11846,39 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -10178,16 +11892,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -10201,13 +11915,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>18</v>
@@ -10224,16 +11938,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -10247,16 +11961,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -10270,13 +11984,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>22</v>
@@ -10293,16 +12007,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -10316,16 +12030,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>22</v>
@@ -10339,16 +12053,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>22</v>
@@ -10362,16 +12076,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -10385,16 +12099,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -10408,16 +12122,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>22</v>
@@ -10431,13 +12145,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>18</v>
@@ -10454,13 +12168,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>18</v>
@@ -10477,19 +12191,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>0</v>
@@ -10500,19 +12214,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H39" s="7" t="n">
         <v>0</v>
@@ -10523,19 +12237,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
@@ -10546,19 +12260,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
@@ -10569,16 +12283,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>22</v>
@@ -10592,16 +12306,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>22</v>
@@ -10615,10 +12329,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
@@ -10638,10 +12352,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>17</v>
@@ -10655,16 +12369,16 @@
       <c r="H45" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>30</v>
+      <c r="I45" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
@@ -10678,16 +12392,16 @@
       <c r="H46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>30</v>
+      <c r="I46" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -10701,25 +12415,25 @@
       <c r="H47" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>30</v>
+      <c r="I47" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H48" s="7" t="n">
         <v>0</v>
@@ -10730,13 +12444,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>18</v>
@@ -10747,30 +12461,99 @@
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
+      <c r="I49" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D52" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7" t="n">
+      <c r="E52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10790,24 +12573,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10815,7 +12598,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11029,10 +12812,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -11052,10 +12835,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -11075,10 +12858,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -11098,16 +12881,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -11115,22 +12898,22 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -11138,16 +12921,16 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -11167,16 +12950,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -11184,22 +12967,22 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -11207,8 +12990,8 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11219,13 +13002,13 @@
         <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -11242,18 +13025,64 @@
         <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11273,24 +13102,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11298,7 +13127,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -11511,13 +13340,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -11540,10 +13369,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -11551,16 +13380,16 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -11580,10 +13409,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -11603,13 +13432,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -11626,10 +13455,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -11643,19 +13472,19 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -11666,48 +13495,48 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -11718,42 +13547,42 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -11764,16 +13593,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -11787,10 +13616,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -11804,22 +13633,22 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -11827,25 +13656,25 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
@@ -11856,13 +13685,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
@@ -11873,30 +13702,76 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
+      <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11916,24 +13791,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11941,7 +13816,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -12154,13 +14029,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -12177,16 +14052,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -12194,22 +14069,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -12217,19 +14092,19 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -12246,13 +14121,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -12263,16 +14138,16 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -12286,22 +14161,22 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -12315,10 +14190,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -12338,13 +14213,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -12361,19 +14236,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -12384,16 +14259,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -12407,16 +14282,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -12430,16 +14305,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -12453,24 +14328,116 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
+      <c r="E26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="380">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -203,217 +203,226 @@
     <t xml:space="preserve">Call for Proposals (oe_call_proposals)</t>
   </si>
   <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
     <t xml:space="preserve">body/value</t>
   </si>
   <si>
     <t xml:space="preserve">Body text / value</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_call_proposals_contact/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_contact/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_grants/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awarded grants / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_grants/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awarded grants / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_journal/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication in the official journal / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_journal/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication in the official journal / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_proposals_opening_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_departments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_publication_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_reference_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call for Tenders (oe_call_tenders)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content_translation_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content_translation_outdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation outdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_tenders_deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_tenders_opening_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation (oe_consultation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_additional_info/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional information / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_aim/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why we are consulting / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_closed_text/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond to the consultation (closed status text) / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_contacts/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_contacts/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_documents/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_documents/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_guidelines/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond to the consultation / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_legal_info/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal notice / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_opening_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_outcome/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation outcome / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_outcome_files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_response_button/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond button / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_response_button/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond button / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_consultation_target_audience/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target audience / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event (oe_event)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full text / value</t>
+  </si>
+  <si>
     <t xml:space="preserve">body/summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Body text / summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_contact/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_contact/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funding programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_grants/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awarded grants / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_grants/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awarded grants / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_journal/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication in the official journal / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_journal/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication in the official journal / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_proposals_opening_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opening date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_departments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_publication_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_reference_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call for Tenders (oe_call_tenders)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_tenders_deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_tenders_opening_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation (oe_consultation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_additional_info/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional information / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_aim/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why we are consulting / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_closed_text/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respond to the consultation (closed status text) / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_contacts/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacts / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_contacts/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacts / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_documents/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_documents/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_guidelines/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respond to the consultation / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_legal_info/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal notice / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_opening_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_outcome/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation outcome / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_outcome_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outcome files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_response_button/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respond button / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_response_button/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respond button / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_consultation_target_audience/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target audience / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event (oe_event)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full text / value</t>
+    <t xml:space="preserve">Full text / summary</t>
   </si>
   <si>
     <t xml:space="preserve">oe_author</t>
@@ -686,24 +695,18 @@
     <t xml:space="preserve">Organisation (oe_organisation)</t>
   </si>
   <si>
-    <t xml:space="preserve">content_translation_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content_translation_outdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation outdated</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_organisation_acronym</t>
   </si>
   <si>
     <t xml:space="preserve">Acronym</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_organisation_chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation chart</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_organisation_contact/target_id</t>
   </si>
   <si>
@@ -738,6 +741,36 @@
   </si>
   <si>
     <t xml:space="preserve">Organisation type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_organisation_overview/term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview / term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_organisation_overview/description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview / description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_organisation_persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_organisation_staff_link/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff search link / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_organisation_staff_link/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff search link / title</t>
   </si>
   <si>
     <t xml:space="preserve">Page (oe_page)</t>
@@ -1350,18 +1383,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1404,22 +1437,24 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1427,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1640,10 +1675,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -1732,10 +1767,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -1801,10 +1836,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1824,10 +1859,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -1932,22 +1967,24 @@
   </sheetPr>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1955,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2010,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -2237,10 +2274,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -2260,10 +2297,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>37</v>
@@ -2283,10 +2320,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -2306,10 +2343,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>37</v>
@@ -2329,10 +2366,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>
@@ -2352,10 +2389,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -2375,10 +2412,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
@@ -2398,10 +2435,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
@@ -2421,10 +2458,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -2444,10 +2481,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -2467,10 +2504,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -2490,10 +2527,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
@@ -2513,10 +2550,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>29</v>
@@ -2536,10 +2573,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>21</v>
@@ -2559,10 +2596,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>37</v>
@@ -2582,10 +2619,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>21</v>
@@ -2605,10 +2642,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>21</v>
@@ -2628,10 +2665,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -2651,10 +2688,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>21</v>
@@ -2674,10 +2711,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
@@ -2697,10 +2734,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -2720,10 +2757,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>37</v>
@@ -2743,10 +2780,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -2766,10 +2803,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -2789,10 +2826,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -2858,10 +2895,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -2881,10 +2918,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -2904,10 +2941,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>17</v>
@@ -3012,22 +3049,24 @@
   </sheetPr>
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3035,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3248,10 +3287,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -3340,10 +3379,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3478,10 +3517,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -3501,10 +3540,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>37</v>
@@ -3524,10 +3563,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>37</v>
@@ -3566,21 +3605,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3588,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3801,10 +3840,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -3893,10 +3932,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3916,10 +3955,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -3939,10 +3978,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
@@ -3962,10 +4001,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -3985,13 +4024,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -4008,13 +4047,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
@@ -4031,10 +4070,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -4054,10 +4093,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -4077,10 +4116,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -4100,10 +4139,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -4123,10 +4162,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -4146,10 +4185,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
@@ -4169,10 +4208,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
@@ -4192,10 +4231,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -4215,10 +4254,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>29</v>
@@ -4238,10 +4277,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -4261,10 +4300,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -4284,10 +4323,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
@@ -4307,10 +4346,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
@@ -4330,10 +4369,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
@@ -4353,10 +4392,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -4376,10 +4415,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -4399,10 +4438,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -4422,10 +4461,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -4445,10 +4484,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>17</v>
@@ -4468,10 +4507,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>17</v>
@@ -4491,10 +4530,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -4514,10 +4553,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -4537,10 +4576,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>21</v>
@@ -4560,10 +4599,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>21</v>
@@ -4583,10 +4622,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>37</v>
@@ -4606,10 +4645,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>21</v>
@@ -4629,10 +4668,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
@@ -4652,10 +4691,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -4721,10 +4760,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
@@ -4770,7 +4809,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>37</v>
@@ -4827,24 +4866,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4852,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4907,7 +4948,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -5065,13 +5106,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -5088,13 +5129,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -5111,16 +5152,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -5128,22 +5169,22 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -5151,16 +5192,16 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -5169,7 +5210,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -5180,10 +5221,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -5203,13 +5244,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>202</v>
+        <v>367</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -5226,13 +5267,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>355</v>
+        <v>58</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -5249,10 +5290,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>356</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -5261,7 +5302,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
@@ -5272,13 +5313,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
@@ -5295,36 +5336,36 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
@@ -5335,25 +5376,25 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>30</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
@@ -5364,39 +5405,39 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -5410,39 +5451,39 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>30</v>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -5450,45 +5491,45 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="n">
-        <v>1</v>
+      <c r="I27" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>368</v>
+        <v>47</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -5496,22 +5537,22 @@
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>30</v>
+      <c r="I28" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>18</v>
@@ -5519,53 +5560,7 @@
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="n">
+      <c r="I29" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,23 +5582,25 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7071,25 +7068,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7152,7 +7151,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -7310,10 +7309,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -7333,10 +7332,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
@@ -7356,16 +7355,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -7373,16 +7372,16 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -7402,13 +7401,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -7419,16 +7418,16 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -7448,13 +7447,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -7465,19 +7464,19 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -7488,19 +7487,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -7517,10 +7516,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -7540,16 +7539,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -7563,10 +7562,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -7586,19 +7585,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
@@ -7609,11 +7608,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
@@ -7632,13 +7631,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>22</v>
@@ -7649,19 +7648,19 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>22</v>
@@ -7678,42 +7677,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -7724,10 +7723,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
@@ -7747,16 +7746,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -7770,56 +7769,56 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
+      <c r="I30" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>30</v>
+      <c r="I31" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>37</v>
@@ -7828,35 +7827,12 @@
         <v>18</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7876,25 +7852,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7902,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -8115,13 +8093,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -8138,13 +8116,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -8161,16 +8139,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -8178,22 +8156,22 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -8201,42 +8179,42 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -8247,42 +8225,42 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -8293,45 +8271,45 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -8339,25 +8317,25 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -8368,16 +8346,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -8391,39 +8369,39 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -8437,24 +8415,70 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="n">
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8476,23 +8500,25 @@
   </sheetPr>
   <dimension ref="1:34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8500,7 +8526,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9558,7 +9584,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
@@ -9785,10 +9811,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>37</v>
@@ -9808,10 +9834,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>37</v>
@@ -9831,10 +9857,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>37</v>
@@ -9854,10 +9880,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
@@ -9877,10 +9903,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -9900,10 +9926,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -9923,10 +9949,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
@@ -9946,10 +9972,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
@@ -9969,10 +9995,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>37</v>
@@ -9992,10 +10018,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>37</v>
@@ -10015,10 +10041,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -10038,10 +10064,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>37</v>
@@ -10061,10 +10087,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
@@ -10084,10 +10110,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
@@ -10107,10 +10133,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -10130,10 +10156,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>37</v>
@@ -10153,10 +10179,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>29</v>
@@ -10305,25 +10331,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:53"/>
+  <dimension ref="1:56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10331,7 +10359,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -11547,13 +11575,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -11570,13 +11598,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -11593,16 +11621,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -11610,22 +11638,22 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -11633,42 +11661,42 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
+      <c r="I13" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -11685,13 +11713,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -11708,13 +11736,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -11725,45 +11753,45 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -11771,25 +11799,25 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -11800,19 +11828,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -11823,13 +11851,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -11846,36 +11874,36 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>22</v>
@@ -11892,16 +11920,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -11915,39 +11943,39 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -11961,16 +11989,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -11984,16 +12012,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -12007,16 +12035,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -12030,16 +12058,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>22</v>
@@ -12053,16 +12081,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>22</v>
@@ -12076,16 +12104,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -12099,13 +12127,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>22</v>
@@ -12122,16 +12150,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>22</v>
@@ -12145,10 +12173,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -12168,16 +12196,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>22</v>
@@ -12191,16 +12219,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>22</v>
@@ -12214,13 +12242,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>18</v>
@@ -12237,19 +12265,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
@@ -12260,19 +12288,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
@@ -12283,16 +12311,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>22</v>
@@ -12306,19 +12334,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H43" s="7" t="n">
         <v>0</v>
@@ -12329,19 +12357,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0</v>
@@ -12352,16 +12380,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>22</v>
@@ -12375,16 +12403,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -12398,10 +12426,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -12421,10 +12449,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>17</v>
@@ -12438,16 +12466,16 @@
       <c r="H48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>30</v>
+      <c r="I48" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>17</v>
@@ -12461,16 +12489,16 @@
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>30</v>
+      <c r="I49" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
@@ -12484,25 +12512,25 @@
       <c r="H50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>30</v>
+      <c r="I50" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H51" s="7" t="n">
         <v>0</v>
@@ -12513,13 +12541,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>18</v>
@@ -12530,30 +12558,99 @@
       <c r="H52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="7" t="n">
-        <v>1</v>
+      <c r="I52" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7" t="n">
+      <c r="F56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12575,22 +12672,24 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12598,7 +12697,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -12812,10 +12911,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -12835,10 +12934,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -12858,10 +12957,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -12904,10 +13003,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -13104,22 +13203,24 @@
   </sheetPr>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13127,7 +13228,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -13340,10 +13441,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -13432,10 +13533,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -13455,10 +13556,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -13478,10 +13579,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
@@ -13501,10 +13602,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -13524,10 +13625,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>29</v>
@@ -13547,10 +13648,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>29</v>
@@ -13570,10 +13671,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -13639,10 +13740,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -13662,10 +13763,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
@@ -13685,10 +13786,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>17</v>
@@ -13791,24 +13892,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13816,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -14029,13 +14132,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -14052,13 +14155,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -14075,16 +14178,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -14092,22 +14195,22 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
+      <c r="I12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -14115,22 +14218,22 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -14138,19 +14241,19 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
+      <c r="I14" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -14167,16 +14270,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -14184,16 +14287,16 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -14207,19 +14310,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -14236,10 +14339,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>29</v>
@@ -14259,13 +14362,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
@@ -14282,13 +14385,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
@@ -14305,19 +14408,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
@@ -14328,36 +14431,36 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -14368,22 +14471,22 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -14391,19 +14494,19 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>18</v>
@@ -14420,24 +14523,116 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="383">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -143,6 +143,12 @@
     <t xml:space="preserve">Redirect link / title</t>
   </si>
   <si>
+    <t xml:space="preserve">ewcms_featured_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featured media</t>
+  </si>
+  <si>
     <t xml:space="preserve">ewcms_metatags</t>
   </si>
   <si>
@@ -209,6 +215,12 @@
     <t xml:space="preserve">Body text / value</t>
   </si>
   <si>
+    <t xml:space="preserve">body/summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body text / summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_call_proposals_contact/target_id</t>
   </si>
   <si>
@@ -296,6 +308,15 @@
     <t xml:space="preserve">Call for Tenders (oe_call_tenders)</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_call_tenders_deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_call_tenders_opening_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation (oe_consultation)</t>
+  </si>
+  <si>
     <t xml:space="preserve">content_translation_source</t>
   </si>
   <si>
@@ -308,15 +329,6 @@
     <t xml:space="preserve">Translation outdated</t>
   </si>
   <si>
-    <t xml:space="preserve">oe_call_tenders_deadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_call_tenders_opening_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation (oe_consultation)</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_consultation_additional_info/value</t>
   </si>
   <si>
@@ -419,9 +431,6 @@
     <t xml:space="preserve">Full text / value</t>
   </si>
   <si>
-    <t xml:space="preserve">body/summary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full text / summary</t>
   </si>
   <si>
@@ -467,9 +476,6 @@
     <t xml:space="preserve">oe_event_featured_media</t>
   </si>
   <si>
-    <t xml:space="preserve">Featured media</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_event_featured_media_legend</t>
   </si>
   <si>
@@ -776,145 +782,148 @@
     <t xml:space="preserve">Page (oe_page)</t>
   </si>
   <si>
+    <t xml:space="preserve">Person (oe_person)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_intro/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography introduction / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_timeline/label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography / label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_timeline/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_biography_timeline/body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography / body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_contacts/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_contacts/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_displayed_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displayed name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_documents/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articles and publications / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_documents/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articles and publications / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_interests_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaration of interests file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_interests_intro/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaration of interests introduction / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_jobs/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_jobs/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobs / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portrait photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_transparency_intro/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency introduction / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_transparency_links/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency links / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_transparency_links/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency links / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_person_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of person are you adding?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Policy (oe_policy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_biography_intro/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography introduction / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_biography_timeline/label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography / label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_biography_timeline/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_biography_timeline/body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography / body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_contacts/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_contacts/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_cv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_displayed_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displayed name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_documents/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articles and publications / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_documents/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articles and publications / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_first_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_interests_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Declaration of interests file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_interests_intro/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Declaration of interests introduction / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_jobs/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobs / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_jobs/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobs / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_last_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portrait photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_transparency_intro/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparency introduction / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_transparency_links/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparency links / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_transparency_links/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparency links / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_person_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of person are you adding?</t>
   </si>
   <si>
     <t xml:space="preserve">oe_timeline/label</t>
@@ -1266,7 +1275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1301,6 +1310,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1382,19 +1395,19 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1435,12 +1448,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1462,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1675,13 +1688,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -1698,13 +1711,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -1721,16 +1734,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -1738,8 +1751,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,10 +1780,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -1790,16 +1803,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -1807,16 +1820,16 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -1836,10 +1849,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1853,8 +1866,8 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,16 +1895,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -1911,10 +1924,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -1922,8 +1935,8 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,18 +1947,41 @@
         <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,13 +2006,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.6581632653061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.4183673469388"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
@@ -1992,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2205,13 +2241,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -2228,10 +2264,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>29</v>
@@ -2251,10 +2287,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>29</v>
@@ -2274,10 +2310,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
@@ -2297,13 +2333,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -2320,10 +2356,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -2343,13 +2379,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>18</v>
@@ -2366,13 +2402,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
@@ -2389,10 +2425,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -2412,10 +2448,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
@@ -2435,10 +2471,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
@@ -2458,10 +2494,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -2481,10 +2517,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -2504,10 +2540,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -2527,10 +2563,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
@@ -2550,10 +2586,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>29</v>
@@ -2573,10 +2609,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>21</v>
@@ -2596,13 +2632,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>18</v>
@@ -2619,10 +2655,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>21</v>
@@ -2642,10 +2678,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>21</v>
@@ -2665,10 +2701,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -2688,10 +2724,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>21</v>
@@ -2711,10 +2747,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
@@ -2734,10 +2770,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -2757,13 +2793,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>18</v>
@@ -2780,10 +2816,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -2803,10 +2839,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -2826,10 +2862,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -2849,7 +2885,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>32</v>
@@ -2872,7 +2908,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>34</v>
@@ -2895,10 +2931,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -2918,10 +2954,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -2941,10 +2977,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>17</v>
@@ -2964,10 +3000,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>29</v>
@@ -2987,13 +3023,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>18</v>
@@ -3010,13 +3046,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>18</v>
@@ -3047,25 +3083,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -3074,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3287,13 +3323,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -3310,19 +3346,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>0</v>
@@ -3333,16 +3369,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -3350,8 +3386,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,10 +3415,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3391,7 +3427,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -3402,33 +3438,33 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -3448,25 +3484,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,19 +3513,19 @@
         <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,13 +3536,13 @@
         <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
@@ -3517,36 +3553,36 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
@@ -3563,13 +3599,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -3581,6 +3617,29 @@
         <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3600,25 +3659,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -3627,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3840,13 +3899,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -3863,19 +3922,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>0</v>
@@ -3886,16 +3945,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -3903,8 +3962,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,10 +3991,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -3955,13 +4014,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -3978,16 +4037,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -3995,19 +4054,19 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
@@ -4024,16 +4083,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -4053,7 +4112,7 @@
         <v>308</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
@@ -4070,16 +4129,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -4087,16 +4146,16 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -4116,16 +4175,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -4139,10 +4198,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -4162,10 +4221,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -4185,10 +4244,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
@@ -4208,13 +4267,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>22</v>
@@ -4225,16 +4284,16 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
@@ -4254,13 +4313,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>22</v>
@@ -4271,25 +4330,25 @@
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>30</v>
+      <c r="I28" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
@@ -4300,10 +4359,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -4323,10 +4382,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
@@ -4346,10 +4405,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
@@ -4369,10 +4428,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
@@ -4392,10 +4451,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -4415,10 +4474,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -4438,10 +4497,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -4461,10 +4520,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -4484,10 +4543,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>17</v>
@@ -4507,10 +4566,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>17</v>
@@ -4530,10 +4589,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -4553,10 +4612,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -4576,19 +4635,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H42" s="7" t="n">
         <v>0</v>
@@ -4599,10 +4658,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>21</v>
@@ -4622,16 +4681,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>22</v>
@@ -4639,22 +4698,22 @@
       <c r="H44" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I44" s="7" t="n">
-        <v>1</v>
+      <c r="I44" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>22</v>
@@ -4662,22 +4721,22 @@
       <c r="H45" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>30</v>
+      <c r="I45" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -4685,16 +4744,16 @@
       <c r="H46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="7" t="n">
-        <v>1</v>
+      <c r="I46" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -4714,10 +4773,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>17</v>
@@ -4737,10 +4796,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>17</v>
@@ -4760,16 +4819,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>22</v>
@@ -4783,25 +4842,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H51" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>30</v>
+      <c r="I51" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,22 +4868,22 @@
         <v>46</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>364</v>
+        <v>47</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="7" t="n">
-        <v>1</v>
+      <c r="I52" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,21 +4891,44 @@
         <v>48</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>49</v>
+        <v>367</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H53" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,25 +4948,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -4893,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5106,13 +5188,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -5129,13 +5211,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -5152,16 +5234,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -5169,8 +5251,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,10 +5280,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -5210,7 +5292,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>0</v>
@@ -5221,10 +5303,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>366</v>
+        <v>207</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -5233,7 +5315,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
@@ -5244,19 +5326,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -5267,10 +5349,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>58</v>
+        <v>370</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -5279,7 +5361,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
@@ -5290,10 +5372,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -5313,13 +5395,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>371</v>
+        <v>64</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
@@ -5336,33 +5418,33 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>372</v>
+        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>373</v>
+        <v>86</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -5371,7 +5453,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -5382,13 +5464,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
@@ -5405,56 +5487,56 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>17</v>
@@ -5474,16 +5556,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>379</v>
+        <v>34</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -5491,25 +5573,25 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -5526,19 +5608,19 @@
         <v>47</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
+      <c r="I28" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,18 +5631,41 @@
         <v>49</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,26 +5685,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:19"/>
+  <dimension ref="1:20"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -6830,7 +6935,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -6847,16 +6952,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -6864,8 +6969,8 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6896,13 +7001,13 @@
         <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -6910,16 +7015,16 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -6939,25 +7044,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,19 +7073,19 @@
         <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,13 +7096,13 @@
         <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
@@ -7014,19 +7119,19 @@
         <v>51</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>30</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,6 +7154,29 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7068,26 +7196,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7755102040816"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.9795918367347"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.8571428571429"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -7096,7 +7224,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7309,13 +7437,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -7332,13 +7460,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -7355,16 +7483,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -7372,8 +7500,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,13 +7529,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>22</v>
@@ -7418,16 +7546,16 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -7447,13 +7575,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -7464,19 +7592,19 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
@@ -7487,19 +7615,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -7516,10 +7644,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -7539,16 +7667,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -7562,10 +7690,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -7585,19 +7713,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
@@ -7608,10 +7736,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -7620,7 +7748,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
@@ -7631,13 +7759,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>22</v>
@@ -7648,19 +7776,19 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>30</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>22</v>
@@ -7677,42 +7805,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -7723,10 +7851,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
@@ -7746,16 +7874,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -7769,25 +7897,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>30</v>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,19 +7926,19 @@
         <v>47</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,18 +7949,41 @@
         <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7852,26 +8003,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6071428571429"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -7880,7 +8031,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7937,19 +8088,19 @@
       <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7960,19 +8111,19 @@
       <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7983,19 +8134,19 @@
       <c r="D5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8006,19 +8157,19 @@
       <c r="D6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8029,19 +8180,19 @@
       <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8052,19 +8203,19 @@
       <c r="D8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8075,410 +8226,387 @@
       <c r="D9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,26 +8626,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:34"/>
+  <dimension ref="1:36"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.25"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.0867346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.4438775510204"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -9742,13 +9870,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -9765,16 +9893,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -9782,22 +9910,22 @@
       <c r="H11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>30</v>
+      <c r="I11" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -9805,22 +9933,22 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -9828,22 +9956,22 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -9851,8 +9979,8 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,7 +9991,7 @@
         <v>98</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>18</v>
@@ -9886,10 +10014,10 @@
         <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -9897,8 +10025,8 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>30</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9909,10 +10037,10 @@
         <v>102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -9920,8 +10048,8 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9932,19 +10060,19 @@
         <v>104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9978,19 +10106,19 @@
         <v>108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10001,10 +10129,10 @@
         <v>110</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -10012,8 +10140,8 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10024,10 +10152,10 @@
         <v>112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -10035,8 +10163,8 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10044,16 +10172,16 @@
         <v>113</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
@@ -10064,13 +10192,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -10087,25 +10215,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>30</v>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10116,7 +10244,7 @@
         <v>119</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>18</v>
@@ -10139,10 +10267,10 @@
         <v>121</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -10150,8 +10278,8 @@
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="n">
-        <v>1</v>
+      <c r="I27" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10162,13 +10290,13 @@
         <v>123</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
@@ -10179,16 +10307,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -10196,25 +10324,25 @@
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>30</v>
+      <c r="I29" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>0</v>
@@ -10225,16 +10353,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>22</v>
@@ -10242,8 +10370,8 @@
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,33 +10379,33 @@
         <v>44</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>30</v>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>18</v>
@@ -10294,24 +10422,70 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10331,26 +10505,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:56"/>
+  <dimension ref="1:54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="1" width="7.83163265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -10359,7 +10533,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -11575,13 +11749,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -11598,13 +11772,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -11621,13 +11795,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>18</v>
@@ -11644,16 +11818,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -11661,22 +11835,22 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -11684,16 +11858,16 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>29</v>
@@ -11702,7 +11876,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="n">
         <v>0</v>
@@ -11713,13 +11887,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>22</v>
@@ -11736,19 +11910,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
@@ -11759,65 +11933,65 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>30</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
+      <c r="I19" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7" t="n">
         <v>0</v>
@@ -11828,19 +12002,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -11851,16 +12025,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -11874,10 +12048,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -11897,39 +12071,39 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -11943,39 +12117,39 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>30</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -11989,16 +12163,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -12012,13 +12186,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>18</v>
@@ -12035,16 +12209,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -12058,16 +12232,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>22</v>
@@ -12081,13 +12255,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>22</v>
@@ -12104,16 +12278,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -12127,16 +12301,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -12150,16 +12324,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>22</v>
@@ -12173,16 +12347,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>22</v>
@@ -12196,16 +12370,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>22</v>
@@ -12219,16 +12393,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>22</v>
@@ -12242,13 +12416,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>18</v>
@@ -12265,13 +12439,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>18</v>
@@ -12288,19 +12462,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H41" s="7" t="n">
         <v>0</v>
@@ -12311,19 +12485,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H42" s="7" t="n">
         <v>0</v>
@@ -12334,19 +12508,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H43" s="7" t="n">
         <v>0</v>
@@ -12357,19 +12531,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0</v>
@@ -12380,16 +12554,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>22</v>
@@ -12403,16 +12577,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -12426,10 +12600,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -12449,10 +12623,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>17</v>
@@ -12472,10 +12646,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>17</v>
@@ -12489,16 +12663,16 @@
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
+      <c r="I49" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
@@ -12512,16 +12686,16 @@
       <c r="H50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="7" t="n">
-        <v>1</v>
+      <c r="I50" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>17</v>
@@ -12541,19 +12715,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H52" s="7" t="n">
         <v>0</v>
@@ -12564,13 +12738,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>18</v>
@@ -12581,22 +12755,22 @@
       <c r="H53" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>30</v>
+      <c r="I53" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>18</v>
@@ -12604,53 +12778,7 @@
       <c r="H54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7" t="n">
+      <c r="I54" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12675,20 +12803,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.9438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -12697,7 +12825,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -12911,10 +13039,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -12934,10 +13062,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -12957,10 +13085,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
@@ -12980,13 +13108,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -13003,10 +13131,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -13026,7 +13154,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>32</v>
@@ -13049,7 +13177,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>34</v>
@@ -13072,10 +13200,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>29</v>
@@ -13095,13 +13223,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>18</v>
@@ -13118,13 +13246,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>18</v>
@@ -13141,10 +13269,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
@@ -13164,10 +13292,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -13201,25 +13329,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="15.7397959183673"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -13228,7 +13356,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -13441,13 +13569,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -13464,19 +13592,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>0</v>
@@ -13487,16 +13615,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -13504,8 +13632,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13533,10 +13661,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>29</v>
@@ -13556,13 +13684,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>22</v>
@@ -13579,10 +13707,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
@@ -13602,10 +13730,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -13619,19 +13747,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -13660,24 +13788,24 @@
         <v>22</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
@@ -13689,24 +13817,24 @@
         <v>0</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -13717,10 +13845,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -13740,16 +13868,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -13763,16 +13891,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -13780,8 +13908,8 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>30</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13809,19 +13937,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
@@ -13838,19 +13966,19 @@
         <v>47</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="n">
-        <v>1</v>
+      <c r="I27" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13861,18 +13989,41 @@
         <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13892,12 +14043,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13919,7 +14070,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -14132,13 +14283,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -14155,13 +14306,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>18</v>
@@ -14178,16 +14329,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -14195,8 +14346,8 @@
       <c r="H12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14224,16 +14375,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -14241,8 +14392,8 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14253,10 +14404,10 @@
         <v>222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
@@ -14264,8 +14415,8 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,7 +14424,7 @@
         <v>223</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>21</v>
@@ -14293,10 +14444,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -14316,13 +14467,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>22</v>
@@ -14333,8 +14484,8 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14368,7 +14519,7 @@
         <v>230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>22</v>
@@ -14391,7 +14542,7 @@
         <v>232</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
@@ -14414,13 +14565,13 @@
         <v>234</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
@@ -14437,19 +14588,19 @@
         <v>236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,7 +14611,7 @@
         <v>238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -14483,10 +14634,10 @@
         <v>240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -14506,10 +14657,10 @@
         <v>242</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>22</v>
@@ -14517,8 +14668,8 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14546,10 +14697,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
@@ -14569,10 +14720,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -14592,13 +14743,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>18</v>
@@ -14621,7 +14772,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>18</v>
@@ -14633,6 +14784,29 @@
         <v>0</v>
       </c>
       <c r="I31" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/templates/content_type_mapping_template.xlsx
+++ b/templates/content_type_mapping_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="D7 Inventory" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="440">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -164,6 +164,18 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
+    <t xml:space="preserve">ewcms_related_links/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Links / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_related_links/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Links / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ewcms_vocabularies/target_association_id</t>
   </si>
   <si>
@@ -227,6 +239,18 @@
     <t xml:space="preserve">Body text / summary</t>
   </si>
   <si>
+    <t xml:space="preserve">ewcms_documents/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_documents/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents / target_revision_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_call_proposals_contact/target_id</t>
   </si>
   <si>
@@ -362,15 +386,9 @@
     <t xml:space="preserve">oe_consultation_documents/target_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Documents / target_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_consultation_documents/target_revision_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Documents / target_revision_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_consultation_guidelines/value</t>
   </si>
   <si>
@@ -428,267 +446,369 @@
     <t xml:space="preserve">Full text / summary</t>
   </si>
   <si>
+    <t xml:space="preserve">ewcms_event_collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related event collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_event_external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_event_hide_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide event end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_event_organisers/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisers / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_event_organisers/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisers / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_event_publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publications</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_author</t>
   </si>
   <si>
+    <t xml:space="preserve">oe_event_contact/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event contact / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_contact/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event contact / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_dates/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event date / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_dates/end_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event date / end_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_dates/timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event date / timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_description_summary/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description summary / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_entrance_fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_featured_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_featured_media_legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featured media legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_media_more_description/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other links to further media items / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_media_more_link/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main link to further media items / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_media_more_link/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main link to further media items / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_dates/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online time / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_dates/end_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online time / end_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_dates/timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online time / timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_description/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online description / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_link/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online link / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_link/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online link / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_online_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_organiser_internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal organiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_organiser_is_internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiser is internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_organiser_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organiser name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_programme/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_programme/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_registration_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_registration_dates/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration date / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_registration_dates/end_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration date / end_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_registration_dates/timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration date / timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_registration_url/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration URL / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_registration_url/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration URL / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_report_summary/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary for report / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_report_text/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report text / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_speakers/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_speakers/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_status_description/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status description / value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_venue/target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venue / target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_venue/target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venue / target_revision_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_website/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event website / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_website/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event website / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_event_who_should_attend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who should attend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_social_media_links/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media links / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_social_media_links/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media links / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oe_social_media_links/link_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media links / link_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Page (oe_list_page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_additional_links/uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional links / uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_additional_links/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional links / title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ewcms_additional_links_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional links title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
     <t xml:space="preserve">oe_authors/target_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsible department / target_id</t>
+    <t xml:space="preserve">Authors / target_id</t>
   </si>
   <si>
     <t xml:space="preserve">oe_authors/target_revision_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsible department / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_contact/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event contact / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_contact/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event contact / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_dates/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event date / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_dates/end_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event date / end_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_description_summary/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description summary / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_entrance_fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrance fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_featured_media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_featured_media_legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Featured media legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_online_dates/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online time / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_online_dates/end_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online time / end_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_online_description/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online description / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_online_link/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online link / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_online_link/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online link / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_online_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_organiser_internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal organiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_organiser_is_internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organiser is internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_organiser_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organiser name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_registration_capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_registration_dates/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration date / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_registration_dates/end_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration date / end_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_registration_url/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration URL / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_registration_url/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration URL / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_report_summary/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary for report / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_report_text/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report text / value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_venue/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venue / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_venue/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venue / target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_website/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event website / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_event_website/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event website / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_social_media_links/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social media links / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_social_media_links/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social media links / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe_social_media_links/link_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social media links / link_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Page (oe_list_page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_additional_links/uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional links / uri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_additional_links/title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional links / title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_additional_links_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional links title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authors / target_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Authors / target_revision_id</t>
   </si>
   <si>
     <t xml:space="preserve">News (oe_news)</t>
   </si>
   <si>
-    <t xml:space="preserve">ewcms_related_links/target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related Links / target_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ewcms_related_links/target_revision_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Related Links / target_revision_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Related department</t>
   </si>
   <si>
@@ -935,9 +1055,6 @@
     <t xml:space="preserve">oe_person_media</t>
   </si>
   <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
     <t xml:space="preserve">oe_person_organisation</t>
   </si>
   <si>
@@ -1221,9 +1338,6 @@
   </si>
   <si>
     <t xml:space="preserve">oe_publication_publications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publications</t>
   </si>
   <si>
     <t xml:space="preserve">oe_publication_thumbnail</t>
@@ -1448,7 +1562,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1506,20 +1620,20 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -1528,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1764,10 +1878,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -1787,10 +1901,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -1833,10 +1947,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1856,10 +1970,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -1879,10 +1993,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -1902,10 +2016,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>31</v>
@@ -1925,10 +2039,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>31</v>
@@ -1948,10 +2062,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -1971,10 +2085,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1994,7 +2108,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>34</v>
@@ -2017,7 +2131,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>36</v>
@@ -2040,10 +2154,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>22</v>
@@ -2063,10 +2177,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>22</v>
@@ -2086,10 +2200,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>31</v>
@@ -2109,10 +2223,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>41</v>
@@ -2132,10 +2246,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>41</v>
@@ -2169,25 +2283,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -2196,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2461,7 +2575,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>19</v>
@@ -2484,7 +2598,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>19</v>
@@ -2501,10 +2615,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>31</v>
@@ -2524,16 +2638,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -2541,22 +2655,22 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -2570,10 +2684,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>41</v>
@@ -2587,19 +2701,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>18</v>
@@ -2616,16 +2730,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
@@ -2639,16 +2753,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -2662,10 +2776,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -2679,22 +2793,22 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -2702,16 +2816,16 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2725,22 +2839,22 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>32</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>19</v>
@@ -2748,71 +2862,71 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>32</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -2823,19 +2937,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
@@ -2846,10 +2960,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2863,22 +2977,22 @@
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>32</v>
+      <c r="I29" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>19</v>
@@ -2886,39 +3000,39 @@
       <c r="H30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>32</v>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>17</v>
@@ -2938,19 +3052,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>0</v>
@@ -2961,10 +3075,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -2978,22 +3092,22 @@
       <c r="H34" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="7" t="n">
-        <v>1</v>
+      <c r="I34" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>19</v>
@@ -3007,16 +3121,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>19</v>
@@ -3024,19 +3138,19 @@
       <c r="H36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>32</v>
+      <c r="I36" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>18</v>
@@ -3047,39 +3161,39 @@
       <c r="H37" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>32</v>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="7" t="n">
-        <v>1</v>
+      <c r="I38" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>46</v>
+        <v>347</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>22</v>
@@ -3093,25 +3207,25 @@
       <c r="H39" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="7" t="n">
-        <v>1</v>
+      <c r="I39" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>47</v>
+        <v>349</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" s="7" t="n">
         <v>0</v>
@@ -3122,10 +3236,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>22</v>
@@ -3139,16 +3253,16 @@
       <c r="H41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>32</v>
+      <c r="I41" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>22</v>
@@ -3162,16 +3276,16 @@
       <c r="H42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>32</v>
+      <c r="I42" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>22</v>
@@ -3191,19 +3305,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0</v>
@@ -3214,13 +3328,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>18</v>
@@ -3231,8 +3345,8 @@
       <c r="H45" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="n">
-        <v>1</v>
+      <c r="I45" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,18 +3357,64 @@
         <v>53</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7" t="n">
+      <c r="F47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,25 +3434,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -3301,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3537,10 +3697,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -3560,10 +3720,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -3606,10 +3766,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>31</v>
@@ -3629,10 +3789,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>31</v>
@@ -3652,10 +3812,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -3675,16 +3835,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
@@ -3692,22 +3852,22 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -3715,42 +3875,42 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>32</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>18</v>
@@ -3767,16 +3927,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>18</v>
@@ -3784,19 +3944,19 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>32</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -3807,16 +3967,16 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>41</v>
@@ -3825,24 +3985,24 @@
         <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>18</v>
@@ -3854,52 +4014,6 @@
         <v>0</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3919,25 +4033,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -3946,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4182,10 +4296,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -4205,10 +4319,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -4228,16 +4342,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
@@ -4245,19 +4359,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -4274,16 +4388,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -4291,19 +4405,19 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>32</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>19</v>
@@ -4320,10 +4434,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -4343,16 +4457,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -4360,22 +4474,22 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
@@ -4383,19 +4497,19 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>324</v>
+        <v>91</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>19</v>
@@ -4406,19 +4520,19 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>19</v>
@@ -4429,19 +4543,19 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>18</v>
@@ -4452,16 +4566,16 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>32</v>
+      <c r="I22" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>22</v>
@@ -4475,19 +4589,19 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>32</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>19</v>
@@ -4498,19 +4612,19 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>32</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>19</v>
@@ -4521,22 +4635,22 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>32</v>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>19</v>
@@ -4550,16 +4664,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>19</v>
@@ -4573,13 +4687,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>19</v>
@@ -4590,19 +4704,19 @@
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>19</v>
@@ -4613,19 +4727,19 @@
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="n">
-        <v>1</v>
+      <c r="I29" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>19</v>
@@ -4642,19 +4756,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
@@ -4665,65 +4779,65 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>32</v>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>32</v>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>0</v>
@@ -4734,10 +4848,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>22</v>
@@ -4757,10 +4871,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -4780,10 +4894,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>22</v>
@@ -4803,10 +4917,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>22</v>
@@ -4826,10 +4940,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>22</v>
@@ -4849,10 +4963,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>22</v>
@@ -4872,10 +4986,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>22</v>
@@ -4895,10 +5009,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>22</v>
@@ -4918,10 +5032,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>22</v>
@@ -4941,19 +5055,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0</v>
@@ -4964,19 +5078,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="7" t="n">
         <v>0</v>
@@ -4987,42 +5101,42 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="7" t="n">
-        <v>1</v>
+      <c r="I46" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" s="7" t="n">
         <v>0</v>
@@ -5033,16 +5147,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>19</v>
@@ -5050,22 +5164,22 @@
       <c r="H48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="7" t="n">
-        <v>1</v>
+      <c r="I48" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>19</v>
@@ -5073,19 +5187,19 @@
       <c r="H49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
+      <c r="I49" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>46</v>
+        <v>415</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>34</v>
+        <v>416</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>18</v>
@@ -5102,16 +5216,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>47</v>
+        <v>417</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>19</v>
@@ -5119,22 +5233,22 @@
       <c r="H51" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="7" t="n">
-        <v>1</v>
+      <c r="I51" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>89</v>
+        <v>419</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>19</v>
@@ -5148,25 +5262,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>32</v>
+      <c r="I53" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,10 +5288,10 @@
         <v>50</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>384</v>
+        <v>34</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>18</v>
@@ -5194,24 +5308,116 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7" t="n">
+      <c r="F58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5231,25 +5437,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -5258,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5494,10 +5700,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -5517,10 +5723,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -5569,7 +5775,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -5592,7 +5798,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>19</v>
@@ -5609,10 +5815,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -5621,7 +5827,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
@@ -5632,13 +5838,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>19</v>
@@ -5655,13 +5861,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>19</v>
@@ -5678,13 +5884,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>19</v>
@@ -5701,10 +5907,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>386</v>
+        <v>255</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -5724,33 +5930,33 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>387</v>
+        <v>91</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>388</v>
+        <v>257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>64</v>
+        <v>425</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -5770,10 +5976,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -5782,24 +5988,24 @@
         <v>19</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>32</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>19</v>
@@ -5816,36 +6022,36 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>87</v>
+        <v>429</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>19</v>
@@ -5856,42 +6062,42 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>32</v>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>19</v>
@@ -5908,19 +6114,19 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
@@ -5931,16 +6137,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>34</v>
+        <v>435</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>19</v>
@@ -5954,39 +6160,39 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>436</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>19</v>
@@ -5994,45 +6200,45 @@
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>32</v>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>32</v>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>50</v>
+        <v>438</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>51</v>
+        <v>439</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>19</v>
@@ -6040,8 +6246,8 @@
       <c r="H34" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="7" t="n">
-        <v>1</v>
+      <c r="I34" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,18 +6258,64 @@
         <v>53</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="n">
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,25 +6335,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ21"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="10" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="6.08"/>
   </cols>
@@ -7402,7 +7652,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>19</v>
@@ -7425,7 +7675,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -7445,13 +7695,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -7459,22 +7709,22 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -7482,42 +7732,42 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>18</v>
@@ -7540,10 +7790,10 @@
         <v>53</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>18</v>
@@ -7551,8 +7801,8 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,10 +7813,10 @@
         <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -7574,8 +7824,8 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>32</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7586,18 +7836,64 @@
         <v>57</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="F22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7617,25 +7913,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="10" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="6.08"/>
   </cols>
@@ -7645,7 +7941,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7881,10 +8177,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -7904,10 +8200,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -7927,16 +8223,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
@@ -7944,19 +8240,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -7973,16 +8269,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -7990,16 +8286,16 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>32</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -8013,16 +8309,16 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -8036,19 +8332,19 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>19</v>
@@ -8065,10 +8361,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>31</v>
@@ -8082,8 +8378,8 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,7 +8390,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>19</v>
@@ -8117,7 +8413,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>19</v>
@@ -8143,7 +8439,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -8151,8 +8447,8 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8163,10 +8459,10 @@
         <v>78</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
@@ -8192,7 +8488,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
@@ -8232,10 +8528,10 @@
         <v>84</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>19</v>
@@ -8243,8 +8539,8 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>32</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8255,10 +8551,10 @@
         <v>86</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>19</v>
@@ -8266,8 +8562,8 @@
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>32</v>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,16 +8591,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>19</v>
@@ -8318,16 +8614,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>19</v>
@@ -8335,19 +8631,19 @@
       <c r="H30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
+      <c r="I30" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>19</v>
@@ -8358,19 +8654,19 @@
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>19</v>
@@ -8381,8 +8677,8 @@
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>32</v>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,10 +8686,10 @@
         <v>50</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>18</v>
@@ -8410,24 +8706,116 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8447,7 +8835,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8457,15 +8845,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="10" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="6.08"/>
   </cols>
@@ -8475,7 +8863,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -8711,10 +9099,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -8734,10 +9122,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -8757,16 +9145,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
@@ -8774,19 +9162,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -8803,16 +9191,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -8820,42 +9208,42 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>32</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>19</v>
@@ -8866,16 +9254,16 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
+      <c r="I17" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>31</v>
@@ -8895,13 +9283,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>19</v>
@@ -8918,10 +9306,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>22</v>
@@ -8941,16 +9329,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>19</v>
@@ -8964,16 +9352,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -8981,19 +9369,19 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>19</v>
@@ -9004,19 +9392,19 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>19</v>
@@ -9027,8 +9415,8 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>32</v>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,10 +9424,10 @@
         <v>50</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>18</v>
@@ -9056,24 +9444,116 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,25 +9573,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="10" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="6.08"/>
   </cols>
@@ -9121,7 +9601,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -10389,7 +10869,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>19</v>
@@ -10412,7 +10892,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>19</v>
@@ -10429,16 +10909,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>19</v>
@@ -10446,22 +10926,22 @@
       <c r="H14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
+      <c r="I14" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -10469,16 +10949,16 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
+      <c r="I15" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>41</v>
@@ -10498,16 +10978,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
@@ -10515,22 +10995,22 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -10538,39 +11018,39 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>32</v>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -10590,39 +11070,39 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>32</v>
+      <c r="I21" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -10630,22 +11110,22 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
@@ -10653,25 +11133,25 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
@@ -10682,10 +11162,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>41</v>
@@ -10705,36 +11185,36 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>32</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>18</v>
@@ -10751,16 +11231,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>19</v>
@@ -10768,25 +11248,25 @@
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
@@ -10797,16 +11277,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>19</v>
@@ -10814,25 +11294,25 @@
       <c r="H30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>32</v>
+      <c r="I30" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
@@ -10843,16 +11323,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>19</v>
@@ -10860,42 +11340,42 @@
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="7" t="n">
-        <v>1</v>
+      <c r="I32" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>32</v>
+      <c r="I33" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>18</v>
@@ -10918,18 +11398,64 @@
         <v>53</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="n">
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10949,25 +11475,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:AMJ79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="10" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="6.08"/>
   </cols>
@@ -10977,7 +11503,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -12216,10 +12742,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -12239,10 +12765,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -12262,16 +12788,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
@@ -12279,19 +12805,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -12308,13 +12834,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>19</v>
@@ -12325,39 +12851,39 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>32</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>32</v>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -12371,16 +12897,16 @@
       <c r="H17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
+      <c r="I17" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -12400,10 +12926,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -12423,10 +12949,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -12446,19 +12972,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="n">
         <v>0</v>
@@ -12469,39 +12995,39 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
@@ -12509,22 +13035,22 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>19</v>
@@ -12532,19 +13058,19 @@
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
+      <c r="I24" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>19</v>
@@ -12555,8 +13081,8 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
+      <c r="I25" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12564,39 +13090,39 @@
         <v>148</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
+      <c r="I26" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7" t="n">
         <v>0</v>
@@ -12607,13 +13133,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>19</v>
@@ -12624,17 +13150,17 @@
       <c r="H28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
+      <c r="I28" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="E29" s="7" t="s">
         <v>22</v>
       </c>
@@ -12642,7 +13168,7 @@
         <v>19</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="7" t="n">
         <v>0</v>
@@ -12653,19 +13179,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>0</v>
@@ -12676,19 +13202,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="7" t="n">
         <v>0</v>
@@ -12699,13 +13225,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>18</v>
@@ -12722,16 +13248,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="E33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>19</v>
@@ -12745,13 +13271,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>19</v>
@@ -12768,16 +13294,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>19</v>
@@ -12791,39 +13317,39 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="7" t="n">
-        <v>1</v>
+      <c r="I36" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>19</v>
@@ -12831,22 +13357,22 @@
       <c r="H37" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="7" t="n">
-        <v>1</v>
+      <c r="I37" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>19</v>
@@ -12860,16 +13386,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>19</v>
@@ -12883,10 +13409,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>22</v>
@@ -12906,16 +13432,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>19</v>
@@ -12929,16 +13455,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>19</v>
@@ -12952,16 +13478,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>19</v>
@@ -12975,19 +13501,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" s="7" t="n">
         <v>0</v>
@@ -12998,19 +13524,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" s="7" t="n">
         <v>0</v>
@@ -13021,16 +13547,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>19</v>
@@ -13044,10 +13570,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -13067,16 +13593,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>19</v>
@@ -13090,16 +13616,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>19</v>
@@ -13113,16 +13639,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>19</v>
@@ -13136,10 +13662,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>22</v>
@@ -13159,16 +13685,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>19</v>
@@ -13182,16 +13708,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>19</v>
@@ -13205,10 +13731,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>22</v>
@@ -13222,45 +13748,45 @@
       <c r="H54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>32</v>
+      <c r="I54" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>32</v>
+      <c r="I55" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>19</v>
@@ -13274,24 +13800,530 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D77" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7" t="n">
+      <c r="F78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13311,25 +14343,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -13338,7 +14370,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13575,10 +14607,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>22</v>
@@ -13598,10 +14630,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -13621,10 +14653,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
@@ -13667,13 +14699,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>19</v>
@@ -13690,10 +14722,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -13713,13 +14745,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>19</v>
@@ -13736,16 +14768,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -13753,22 +14785,22 @@
       <c r="H18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
+      <c r="I18" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
@@ -13776,22 +14808,22 @@
       <c r="H19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -13799,19 +14831,19 @@
       <c r="H20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>32</v>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
@@ -13834,19 +14866,19 @@
         <v>53</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13857,10 +14889,10 @@
         <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
@@ -13868,8 +14900,8 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>32</v>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13880,18 +14912,64 @@
         <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="F25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13916,20 +14994,20 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -13938,7 +15016,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -14174,10 +15252,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -14197,10 +15275,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -14243,10 +15321,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -14266,10 +15344,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>17</v>
@@ -14289,10 +15367,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -14312,10 +15390,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>31</v>
@@ -14335,10 +15413,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>31</v>
@@ -14358,10 +15436,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -14381,10 +15459,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -14404,10 +15482,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>31</v>
@@ -14427,10 +15505,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -14450,10 +15528,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -14473,7 +15551,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>38</v>
@@ -14496,10 +15574,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
@@ -14519,10 +15597,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>31</v>
@@ -14542,10 +15620,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>22</v>
@@ -14565,10 +15643,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>22</v>
@@ -14588,10 +15666,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>31</v>
@@ -14611,10 +15689,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -14634,10 +15712,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
@@ -14657,7 +15735,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>34</v>
@@ -14680,7 +15758,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>36</v>
@@ -14703,10 +15781,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>22</v>
@@ -14726,10 +15804,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>22</v>
@@ -14749,10 +15827,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -14772,10 +15850,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>31</v>
@@ -14795,10 +15873,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>41</v>
@@ -14818,10 +15896,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>41</v>
@@ -14855,25 +15933,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="15.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="6.08"/>
   </cols>
   <sheetData>
@@ -14882,7 +15960,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -15118,10 +16196,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>41</v>
@@ -15141,10 +16219,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>41</v>
@@ -15164,16 +16242,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
@@ -15181,19 +16259,19 @@
       <c r="H13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
+      <c r="I13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>19</v>
@@ -15210,16 +16288,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -15227,22 +16305,22 @@
       <c r="H15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>32</v>
+      <c r="I15" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -15250,16 +16328,16 @@
       <c r="H16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
+      <c r="I16" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -15279,13 +16357,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>19</v>
@@ -15302,13 +16380,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>19</v>
@@ -15325,16 +16403,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -15348,13 +16426,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>19</v>
@@ -15365,16 +16443,16 @@
       <c r="H21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
+      <c r="I21" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -15388,19 +16466,19 @@
       <c r="H22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
+      <c r="I22" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>19</v>
@@ -15411,25 +16489,25 @@
       <c r="H23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
+      <c r="I23" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
@@ -15440,16 +16518,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>19</v>
@@ -15457,22 +16535,22 @@
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>32</v>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>19</v>
@@ -15480,19 +16558,19 @@
       <c r="H26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>32</v>
+      <c r="I26" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>19</v>
@@ -15503,25 +16581,25 @@
       <c r="H27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>32</v>
+      <c r="I27" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="7" t="n">
         <v>0</v>
@@ -15532,13 +16610,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>18</v>
@@ -15549,19 +16627,19 @@
       <c r="H29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="n">
-        <v>1</v>
+      <c r="I29" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>18</v>
@@ -15572,22 +16650,22 @@
       <c r="H30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
+      <c r="I30" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>19</v>
@@ -15595,42 +16673,42 @@
       <c r="H31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
+      <c r="I31" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>32</v>
+      <c r="I32" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>18</v>
@@ -15647,24 +16725,116 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="n">
         <v>1</v>
       </c>
     </row>
